--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1b</t>
   </si>
   <si>
     <t>Il1r1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>167.877781640927</v>
+        <v>0.06023933333333333</v>
       </c>
       <c r="H2">
-        <v>167.877781640927</v>
+        <v>0.180718</v>
       </c>
       <c r="I2">
-        <v>0.3251642917331267</v>
+        <v>9.651065048389371E-05</v>
       </c>
       <c r="J2">
-        <v>0.3251642917331267</v>
+        <v>9.65189777332922E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7181089389729</v>
+        <v>13.37432</v>
       </c>
       <c r="N2">
-        <v>11.7181089389729</v>
+        <v>40.12296</v>
       </c>
       <c r="O2">
-        <v>0.09854515446486724</v>
+        <v>0.1019828318366699</v>
       </c>
       <c r="P2">
-        <v>0.09854515446486724</v>
+        <v>0.1077302617359031</v>
       </c>
       <c r="Q2">
-        <v>1967.210133701487</v>
+        <v>0.8056601205866666</v>
       </c>
       <c r="R2">
-        <v>1967.210133701487</v>
+        <v>7.250941085279999</v>
       </c>
       <c r="S2">
-        <v>0.03204336535530012</v>
+        <v>9.842429438746553E-06</v>
       </c>
       <c r="T2">
-        <v>0.03204336535530012</v>
+        <v>1.039801473368937E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>167.877781640927</v>
+        <v>0.06023933333333333</v>
       </c>
       <c r="H3">
-        <v>167.877781640927</v>
+        <v>0.180718</v>
       </c>
       <c r="I3">
-        <v>0.3251642917331267</v>
+        <v>9.651065048389371E-05</v>
       </c>
       <c r="J3">
-        <v>0.3251642917331267</v>
+        <v>9.65189777332922E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.2191089205166</v>
+        <v>96.23965333333335</v>
       </c>
       <c r="N3">
-        <v>88.2191089205166</v>
+        <v>288.71896</v>
       </c>
       <c r="O3">
-        <v>0.7418915253818466</v>
+        <v>0.7338535627914345</v>
       </c>
       <c r="P3">
-        <v>0.7418915253818466</v>
+        <v>0.7752112289052887</v>
       </c>
       <c r="Q3">
-        <v>14810.02830391564</v>
+        <v>5.797412557031112</v>
       </c>
       <c r="R3">
-        <v>14810.02830391564</v>
+        <v>52.17671301328</v>
       </c>
       <c r="S3">
-        <v>0.2412366323935971</v>
+        <v>7.082468470492429E-05</v>
       </c>
       <c r="T3">
-        <v>0.2412366323935971</v>
+        <v>7.482259534130765E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>167.877781640927</v>
+        <v>0.06023933333333333</v>
       </c>
       <c r="H4">
-        <v>167.877781640927</v>
+        <v>0.180718</v>
       </c>
       <c r="I4">
-        <v>0.3251642917331267</v>
+        <v>9.651065048389371E-05</v>
       </c>
       <c r="J4">
-        <v>0.3251642917331267</v>
+        <v>9.65189777332922E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.138146958809842</v>
+        <v>0.1994553333333333</v>
       </c>
       <c r="N4">
-        <v>0.138146958809842</v>
+        <v>0.598366</v>
       </c>
       <c r="O4">
-        <v>0.001161767096181373</v>
+        <v>0.001520901228493132</v>
       </c>
       <c r="P4">
-        <v>0.001161767096181373</v>
+        <v>0.001606614412143705</v>
       </c>
       <c r="Q4">
-        <v>23.19180498543679</v>
+        <v>0.01201505630977778</v>
       </c>
       <c r="R4">
-        <v>23.19180498543679</v>
+        <v>0.108135506788</v>
       </c>
       <c r="S4">
-        <v>0.0003777651749886673</v>
+        <v>1.467831668836252E-07</v>
       </c>
       <c r="T4">
-        <v>0.0003777651749886673</v>
+        <v>1.550687806716846E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>167.877781640927</v>
+        <v>0.06023933333333333</v>
       </c>
       <c r="H5">
-        <v>167.877781640927</v>
+        <v>0.180718</v>
       </c>
       <c r="I5">
-        <v>0.3251642917331267</v>
+        <v>9.651065048389371E-05</v>
       </c>
       <c r="J5">
-        <v>0.3251642917331267</v>
+        <v>9.65189777332922E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.267472483492492</v>
+        <v>0.3399400000000001</v>
       </c>
       <c r="N5">
-        <v>0.267472483492492</v>
+        <v>1.01982</v>
       </c>
       <c r="O5">
-        <v>0.00224934904924852</v>
+        <v>0.002592135065899243</v>
       </c>
       <c r="P5">
-        <v>0.00224934904924852</v>
+        <v>0.002738219601034139</v>
       </c>
       <c r="Q5">
-        <v>44.90268717870902</v>
+        <v>0.02047775897333334</v>
       </c>
       <c r="R5">
-        <v>44.90268717870902</v>
+        <v>0.18429983076</v>
       </c>
       <c r="S5">
-        <v>0.0007314079904594769</v>
+        <v>2.501686413520466E-07</v>
       </c>
       <c r="T5">
-        <v>0.0007314079904594769</v>
+        <v>2.642901567010783E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>167.877781640927</v>
+        <v>0.06023933333333333</v>
       </c>
       <c r="H6">
-        <v>167.877781640927</v>
+        <v>0.180718</v>
       </c>
       <c r="I6">
-        <v>0.3251642917331267</v>
+        <v>9.651065048389371E-05</v>
       </c>
       <c r="J6">
-        <v>0.3251642917331267</v>
+        <v>9.65189777332922E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.5682243592924</v>
+        <v>20.989489</v>
       </c>
       <c r="N6">
-        <v>18.5682243592924</v>
+        <v>41.978978</v>
       </c>
       <c r="O6">
-        <v>0.1561522040078563</v>
+        <v>0.1600505690775031</v>
       </c>
       <c r="P6">
-        <v>0.1561522040078563</v>
+        <v>0.1127136753456305</v>
       </c>
       <c r="Q6">
-        <v>3117.192314449031</v>
+        <v>1.264392824367333</v>
       </c>
       <c r="R6">
-        <v>3117.192314449031</v>
+        <v>7.586356946203999</v>
       </c>
       <c r="S6">
-        <v>0.05077512081878129</v>
+        <v>1.544658453198719E-05</v>
       </c>
       <c r="T6">
-        <v>0.05077512081878129</v>
+        <v>1.087900872092243E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>348.408249479335</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H7">
-        <v>348.408249479335</v>
+        <v>0.174365</v>
       </c>
       <c r="I7">
-        <v>0.6748357082668732</v>
+        <v>9.311789402065165E-05</v>
       </c>
       <c r="J7">
-        <v>0.6748357082668732</v>
+        <v>9.3125928532108E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7181089389729</v>
+        <v>13.37432</v>
       </c>
       <c r="N7">
-        <v>11.7181089389729</v>
+        <v>40.12296</v>
       </c>
       <c r="O7">
-        <v>0.09854515446486724</v>
+        <v>0.1019828318366699</v>
       </c>
       <c r="P7">
-        <v>0.09854515446486724</v>
+        <v>0.1077302617359031</v>
       </c>
       <c r="Q7">
-        <v>4082.685822635696</v>
+        <v>0.7773377689333332</v>
       </c>
       <c r="R7">
-        <v>4082.685822635696</v>
+        <v>6.996039920399999</v>
       </c>
       <c r="S7">
-        <v>0.06650178910956711</v>
+        <v>9.496426526892963E-06</v>
       </c>
       <c r="T7">
-        <v>0.06650178910956711</v>
+        <v>1.0032480655163E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>348.408249479335</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H8">
-        <v>348.408249479335</v>
+        <v>0.174365</v>
       </c>
       <c r="I8">
-        <v>0.6748357082668732</v>
+        <v>9.311789402065165E-05</v>
       </c>
       <c r="J8">
-        <v>0.6748357082668732</v>
+        <v>9.3125928532108E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.2191089205166</v>
+        <v>96.23965333333335</v>
       </c>
       <c r="N8">
-        <v>88.2191089205166</v>
+        <v>288.71896</v>
       </c>
       <c r="O8">
-        <v>0.7418915253818466</v>
+        <v>0.7338535627914345</v>
       </c>
       <c r="P8">
-        <v>0.7418915253818466</v>
+        <v>0.7752112289052887</v>
       </c>
       <c r="Q8">
-        <v>30736.26530962397</v>
+        <v>5.593609051155556</v>
       </c>
       <c r="R8">
-        <v>30736.26530962397</v>
+        <v>50.3424814604</v>
       </c>
       <c r="S8">
-        <v>0.5006548929882494</v>
+        <v>6.833489828669043E-05</v>
       </c>
       <c r="T8">
-        <v>0.5006548929882494</v>
+        <v>7.219226550032153E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>348.408249479335</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H9">
-        <v>348.408249479335</v>
+        <v>0.174365</v>
       </c>
       <c r="I9">
-        <v>0.6748357082668732</v>
+        <v>9.311789402065165E-05</v>
       </c>
       <c r="J9">
-        <v>0.6748357082668732</v>
+        <v>9.3125928532108E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.138146958809842</v>
+        <v>0.1994553333333333</v>
       </c>
       <c r="N9">
-        <v>0.138146958809842</v>
+        <v>0.598366</v>
       </c>
       <c r="O9">
-        <v>0.001161767096181373</v>
+        <v>0.001520901228493132</v>
       </c>
       <c r="P9">
-        <v>0.001161767096181373</v>
+        <v>0.001606614412143705</v>
       </c>
       <c r="Q9">
-        <v>48.13154008983085</v>
+        <v>0.01159267639888889</v>
       </c>
       <c r="R9">
-        <v>48.13154008983085</v>
+        <v>0.10433408759</v>
       </c>
       <c r="S9">
-        <v>0.0007840019211927053</v>
+        <v>1.416231194107024E-07</v>
       </c>
       <c r="T9">
-        <v>0.0007840019211927053</v>
+        <v>1.496174589239494E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>348.408249479335</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H10">
-        <v>348.408249479335</v>
+        <v>0.174365</v>
       </c>
       <c r="I10">
-        <v>0.6748357082668732</v>
+        <v>9.311789402065165E-05</v>
       </c>
       <c r="J10">
-        <v>0.6748357082668732</v>
+        <v>9.3125928532108E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.267472483492492</v>
+        <v>0.3399400000000001</v>
       </c>
       <c r="N10">
-        <v>0.267472483492492</v>
+        <v>1.01982</v>
       </c>
       <c r="O10">
-        <v>0.00224934904924852</v>
+        <v>0.002592135065899243</v>
       </c>
       <c r="P10">
-        <v>0.00224934904924852</v>
+        <v>0.002738219601034139</v>
       </c>
       <c r="Q10">
-        <v>93.18961975750945</v>
+        <v>0.01975787936666667</v>
       </c>
       <c r="R10">
-        <v>93.18961975750945</v>
+        <v>0.1778209143</v>
       </c>
       <c r="S10">
-        <v>0.001517941058789043</v>
+        <v>2.413741583536206E-07</v>
       </c>
       <c r="T10">
-        <v>0.001517941058789043</v>
+        <v>2.549992428711225E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05812166666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.174365</v>
+      </c>
+      <c r="I11">
+        <v>9.311789402065165E-05</v>
+      </c>
+      <c r="J11">
+        <v>9.3125928532108E-05</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.989489</v>
+      </c>
+      <c r="N11">
+        <v>41.978978</v>
+      </c>
+      <c r="O11">
+        <v>0.1600505690775031</v>
+      </c>
+      <c r="P11">
+        <v>0.1127136753456305</v>
+      </c>
+      <c r="Q11">
+        <v>1.219944083161667</v>
+      </c>
+      <c r="R11">
+        <v>7.319664498969999</v>
+      </c>
+      <c r="S11">
+        <v>1.490357192930393E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.049656567482841E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>270.7693163333333</v>
+      </c>
+      <c r="H12">
+        <v>812.307949</v>
+      </c>
+      <c r="I12">
+        <v>0.4338049809716108</v>
+      </c>
+      <c r="J12">
+        <v>0.4338424110609195</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.37432</v>
+      </c>
+      <c r="N12">
+        <v>40.12296</v>
+      </c>
+      <c r="O12">
+        <v>0.1019828318366699</v>
+      </c>
+      <c r="P12">
+        <v>0.1077302617359031</v>
+      </c>
+      <c r="Q12">
+        <v>3621.355482823226</v>
+      </c>
+      <c r="R12">
+        <v>32592.19934540904</v>
+      </c>
+      <c r="S12">
+        <v>0.04424066042433755</v>
+      </c>
+      <c r="T12">
+        <v>0.04673795649572812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>270.7693163333333</v>
+      </c>
+      <c r="H13">
+        <v>812.307949</v>
+      </c>
+      <c r="I13">
+        <v>0.4338049809716108</v>
+      </c>
+      <c r="J13">
+        <v>0.4338424110609195</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>96.23965333333335</v>
+      </c>
+      <c r="N13">
+        <v>288.71896</v>
+      </c>
+      <c r="O13">
+        <v>0.7338535627914345</v>
+      </c>
+      <c r="P13">
+        <v>0.7752112289052887</v>
+      </c>
+      <c r="Q13">
+        <v>26058.74513722368</v>
+      </c>
+      <c r="R13">
+        <v>234528.7062350131</v>
+      </c>
+      <c r="S13">
+        <v>0.3183493308426871</v>
+      </c>
+      <c r="T13">
+        <v>0.3363195086297688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>270.7693163333333</v>
+      </c>
+      <c r="H14">
+        <v>812.307949</v>
+      </c>
+      <c r="I14">
+        <v>0.4338049809716108</v>
+      </c>
+      <c r="J14">
+        <v>0.4338424110609195</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1994553333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.598366</v>
+      </c>
+      <c r="O14">
+        <v>0.001520901228493132</v>
+      </c>
+      <c r="P14">
+        <v>0.001606614412143705</v>
+      </c>
+      <c r="Q14">
+        <v>54.00638424570377</v>
+      </c>
+      <c r="R14">
+        <v>486.057458211334</v>
+      </c>
+      <c r="S14">
+        <v>0.0006597745284861626</v>
+      </c>
+      <c r="T14">
+        <v>0.0006970174702096469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>348.408249479335</v>
-      </c>
-      <c r="H11">
-        <v>348.408249479335</v>
-      </c>
-      <c r="I11">
-        <v>0.6748357082668732</v>
-      </c>
-      <c r="J11">
-        <v>0.6748357082668732</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>18.5682243592924</v>
-      </c>
-      <c r="N11">
-        <v>18.5682243592924</v>
-      </c>
-      <c r="O11">
-        <v>0.1561522040078563</v>
-      </c>
-      <c r="P11">
-        <v>0.1561522040078563</v>
-      </c>
-      <c r="Q11">
-        <v>6469.322544960612</v>
-      </c>
-      <c r="R11">
-        <v>6469.322544960612</v>
-      </c>
-      <c r="S11">
-        <v>0.105377083189075</v>
-      </c>
-      <c r="T11">
-        <v>0.105377083189075</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>270.7693163333333</v>
+      </c>
+      <c r="H15">
+        <v>812.307949</v>
+      </c>
+      <c r="I15">
+        <v>0.4338049809716108</v>
+      </c>
+      <c r="J15">
+        <v>0.4338424110609195</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3399400000000001</v>
+      </c>
+      <c r="N15">
+        <v>1.01982</v>
+      </c>
+      <c r="O15">
+        <v>0.002592135065899243</v>
+      </c>
+      <c r="P15">
+        <v>0.002738219601034139</v>
+      </c>
+      <c r="Q15">
+        <v>92.04532139435335</v>
+      </c>
+      <c r="R15">
+        <v>828.4078925491801</v>
+      </c>
+      <c r="S15">
+        <v>0.001124481102938266</v>
+      </c>
+      <c r="T15">
+        <v>0.00118795579372692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>270.7693163333333</v>
+      </c>
+      <c r="H16">
+        <v>812.307949</v>
+      </c>
+      <c r="I16">
+        <v>0.4338049809716108</v>
+      </c>
+      <c r="J16">
+        <v>0.4338424110609195</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.989489</v>
+      </c>
+      <c r="N16">
+        <v>41.978978</v>
+      </c>
+      <c r="O16">
+        <v>0.1600505690775031</v>
+      </c>
+      <c r="P16">
+        <v>0.1127136753456305</v>
+      </c>
+      <c r="Q16">
+        <v>5683.30958671602</v>
+      </c>
+      <c r="R16">
+        <v>34099.85752029612</v>
+      </c>
+      <c r="S16">
+        <v>0.06943073407316173</v>
+      </c>
+      <c r="T16">
+        <v>0.04889997267148605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>353.1236773333333</v>
+      </c>
+      <c r="H17">
+        <v>1059.371032</v>
+      </c>
+      <c r="I17">
+        <v>0.5657465631653393</v>
+      </c>
+      <c r="J17">
+        <v>0.5657953775988157</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.37432</v>
+      </c>
+      <c r="N17">
+        <v>40.12296</v>
+      </c>
+      <c r="O17">
+        <v>0.1019828318366699</v>
+      </c>
+      <c r="P17">
+        <v>0.1077302617359031</v>
+      </c>
+      <c r="Q17">
+        <v>4722.789060232746</v>
+      </c>
+      <c r="R17">
+        <v>42505.10154209472</v>
+      </c>
+      <c r="S17">
+        <v>0.05769643661346472</v>
+      </c>
+      <c r="T17">
+        <v>0.06095328411768454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>353.1236773333333</v>
+      </c>
+      <c r="H18">
+        <v>1059.371032</v>
+      </c>
+      <c r="I18">
+        <v>0.5657465631653393</v>
+      </c>
+      <c r="J18">
+        <v>0.5657953775988157</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>96.23965333333335</v>
+      </c>
+      <c r="N18">
+        <v>288.71896</v>
+      </c>
+      <c r="O18">
+        <v>0.7338535627914345</v>
+      </c>
+      <c r="P18">
+        <v>0.7752112289052887</v>
+      </c>
+      <c r="Q18">
+        <v>33984.50029035186</v>
+      </c>
+      <c r="R18">
+        <v>305860.5026131668</v>
+      </c>
+      <c r="S18">
+        <v>0.4151751310158937</v>
+      </c>
+      <c r="T18">
+        <v>0.4386109299773098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>353.1236773333333</v>
+      </c>
+      <c r="H19">
+        <v>1059.371032</v>
+      </c>
+      <c r="I19">
+        <v>0.5657465631653393</v>
+      </c>
+      <c r="J19">
+        <v>0.5657953775988157</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1994553333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.598366</v>
+      </c>
+      <c r="O19">
+        <v>0.001520901228493132</v>
+      </c>
+      <c r="P19">
+        <v>0.001606614412143705</v>
+      </c>
+      <c r="Q19">
+        <v>70.43240077041244</v>
+      </c>
+      <c r="R19">
+        <v>633.891606933712</v>
+      </c>
+      <c r="S19">
+        <v>0.0008604446429339319</v>
+      </c>
+      <c r="T19">
+        <v>0.000909015007974547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>353.1236773333333</v>
+      </c>
+      <c r="H20">
+        <v>1059.371032</v>
+      </c>
+      <c r="I20">
+        <v>0.5657465631653393</v>
+      </c>
+      <c r="J20">
+        <v>0.5657953775988157</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3399400000000001</v>
+      </c>
+      <c r="N20">
+        <v>1.01982</v>
+      </c>
+      <c r="O20">
+        <v>0.002592135065899243</v>
+      </c>
+      <c r="P20">
+        <v>0.002738219601034139</v>
+      </c>
+      <c r="Q20">
+        <v>120.0408628726934</v>
+      </c>
+      <c r="R20">
+        <v>1080.36776585424</v>
+      </c>
+      <c r="S20">
+        <v>0.001466491504792857</v>
+      </c>
+      <c r="T20">
+        <v>0.001549271993115589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>353.1236773333333</v>
+      </c>
+      <c r="H21">
+        <v>1059.371032</v>
+      </c>
+      <c r="I21">
+        <v>0.5657465631653393</v>
+      </c>
+      <c r="J21">
+        <v>0.5657953775988157</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.989489</v>
+      </c>
+      <c r="N21">
+        <v>41.978978</v>
+      </c>
+      <c r="O21">
+        <v>0.1600505690775031</v>
+      </c>
+      <c r="P21">
+        <v>0.1127136753456305</v>
+      </c>
+      <c r="Q21">
+        <v>7411.885541027548</v>
+      </c>
+      <c r="R21">
+        <v>44471.31324616529</v>
+      </c>
+      <c r="S21">
+        <v>0.09054805938825414</v>
+      </c>
+      <c r="T21">
+        <v>0.06377287650273132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.161553</v>
+      </c>
+      <c r="H22">
+        <v>0.323106</v>
+      </c>
+      <c r="I22">
+        <v>0.0002588273185453217</v>
+      </c>
+      <c r="J22">
+        <v>0.0001725664339993421</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.37432</v>
+      </c>
+      <c r="N22">
+        <v>40.12296</v>
+      </c>
+      <c r="O22">
+        <v>0.1019828318366699</v>
+      </c>
+      <c r="P22">
+        <v>0.1077302617359031</v>
+      </c>
+      <c r="Q22">
+        <v>2.16066151896</v>
+      </c>
+      <c r="R22">
+        <v>12.96396911376</v>
+      </c>
+      <c r="S22">
+        <v>2.639594290194372E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.859062710158057E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.161553</v>
+      </c>
+      <c r="H23">
+        <v>0.323106</v>
+      </c>
+      <c r="I23">
+        <v>0.0002588273185453217</v>
+      </c>
+      <c r="J23">
+        <v>0.0001725664339993421</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>96.23965333333335</v>
+      </c>
+      <c r="N23">
+        <v>288.71896</v>
+      </c>
+      <c r="O23">
+        <v>0.7338535627914345</v>
+      </c>
+      <c r="P23">
+        <v>0.7752112289052887</v>
+      </c>
+      <c r="Q23">
+        <v>15.54780471496</v>
+      </c>
+      <c r="R23">
+        <v>93.28682828976001</v>
+      </c>
+      <c r="S23">
+        <v>0.0001899413498622378</v>
+      </c>
+      <c r="T23">
+        <v>0.0001337754373684334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.161553</v>
+      </c>
+      <c r="H24">
+        <v>0.323106</v>
+      </c>
+      <c r="I24">
+        <v>0.0002588273185453217</v>
+      </c>
+      <c r="J24">
+        <v>0.0001725664339993421</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1994553333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.598366</v>
+      </c>
+      <c r="O24">
+        <v>0.001520901228493132</v>
+      </c>
+      <c r="P24">
+        <v>0.001606614412143705</v>
+      </c>
+      <c r="Q24">
+        <v>0.032222607466</v>
+      </c>
+      <c r="R24">
+        <v>0.193335644796</v>
+      </c>
+      <c r="S24">
+        <v>3.93650786743163E-07</v>
+      </c>
+      <c r="T24">
+        <v>2.772477199155886E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.161553</v>
+      </c>
+      <c r="H25">
+        <v>0.323106</v>
+      </c>
+      <c r="I25">
+        <v>0.0002588273185453217</v>
+      </c>
+      <c r="J25">
+        <v>0.0001725664339993421</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3399400000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.01982</v>
+      </c>
+      <c r="O25">
+        <v>0.002592135065899243</v>
+      </c>
+      <c r="P25">
+        <v>0.002738219601034139</v>
+      </c>
+      <c r="Q25">
+        <v>0.05491832682000002</v>
+      </c>
+      <c r="R25">
+        <v>0.3295099609200001</v>
+      </c>
+      <c r="S25">
+        <v>6.709153684140017E-07</v>
+      </c>
+      <c r="T25">
+        <v>4.725247920575627E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.161553</v>
+      </c>
+      <c r="H26">
+        <v>0.323106</v>
+      </c>
+      <c r="I26">
+        <v>0.0002588273185453217</v>
+      </c>
+      <c r="J26">
+        <v>0.0001725664339993421</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.989489</v>
+      </c>
+      <c r="N26">
+        <v>41.978978</v>
+      </c>
+      <c r="O26">
+        <v>0.1600505690775031</v>
+      </c>
+      <c r="P26">
+        <v>0.1127136753456305</v>
+      </c>
+      <c r="Q26">
+        <v>3.390914916417</v>
+      </c>
+      <c r="R26">
+        <v>13.563659665668</v>
+      </c>
+      <c r="S26">
+        <v>4.142545962598292E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.945059701735502E-05</v>
       </c>
     </row>
   </sheetData>
